--- a/df_2/df_2_4.xlsx
+++ b/df_2/df_2_4.xlsx
@@ -644,352 +644,352 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9.9746 %</t>
+          <t>9,9746</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.4727 %</t>
+          <t>2,4727</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.4408 %</t>
+          <t>1,4408</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.6955 %</t>
+          <t>0,6955</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.6942 %</t>
+          <t>0,6942</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9034 %</t>
+          <t>0,9034</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.0098 %</t>
+          <t>1,0098</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.8964 %</t>
+          <t>0,8964</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.448 %</t>
+          <t>0,448</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.4914 %</t>
+          <t>0,4914</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.79 %</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.4446 %</t>
+          <t>0,4446</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.7888 %</t>
+          <t>0,7888</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.9974 %</t>
+          <t>0,9974</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.8277 %</t>
+          <t>0,8277</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.9111 %</t>
+          <t>0,9111</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.8411 %</t>
+          <t>0,8411</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.8367 %</t>
+          <t>0,8367</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.1738 %</t>
+          <t>1,1738</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.9498 %</t>
+          <t>0,9498</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.7871 %</t>
+          <t>0,7871</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.7572 %</t>
+          <t>0,7572</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>1.0556 %</t>
+          <t>1,0556</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.7743 %</t>
+          <t>0,7743</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.5673 %</t>
+          <t>0,5673</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.9823 %</t>
+          <t>0,9823</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.7492 %</t>
+          <t>0,7492</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.5057 %</t>
+          <t>0,5057</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.4702 %</t>
+          <t>0,4702</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.6 %</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.8559 %</t>
+          <t>0,8559</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>1.297 %</t>
+          <t>1,297</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.6981 %</t>
+          <t>0,6981</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.368 %</t>
+          <t>0,368</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>1.3853 %</t>
+          <t>1,3853</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.4726 %</t>
+          <t>0,4726</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.8574 %</t>
+          <t>0,8574</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.5871 %</t>
+          <t>0,5871</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.7453 %</t>
+          <t>0,7453</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.4648 %</t>
+          <t>0,4648</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.6964 %</t>
+          <t>0,6964</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.876 %</t>
+          <t>0,876</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.9236 %</t>
+          <t>0,9236</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.9063 %</t>
+          <t>0,9063</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.468 %</t>
+          <t>0,468</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.6067 %</t>
+          <t>0,6067</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.8205 %</t>
+          <t>0,8205</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>1.0432 %</t>
+          <t>1,0432</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>0.7758 %</t>
+          <t>0,7758</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>0.605 %</t>
+          <t>0,605</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0.6462 %</t>
+          <t>0,6462</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>0.7544 %</t>
+          <t>0,7544</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.6641 %</t>
+          <t>0,6641</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.5632 %</t>
+          <t>0,5632</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.7968 %</t>
+          <t>0,7968</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.6983 %</t>
+          <t>0,6983</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.4654 %</t>
+          <t>0,4654</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.3798 %</t>
+          <t>0,3798</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>0.7552 %</t>
+          <t>0,7552</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.8156 %</t>
+          <t>0,8156</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.6572 %</t>
+          <t>0,6572</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.6837 %</t>
+          <t>0,6837</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>1.319 %</t>
+          <t>1,319</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>1.8317 %</t>
+          <t>1,8317</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.4709 %</t>
+          <t>0,4709</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.7683 %</t>
+          <t>0,7683</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>6.0716 %</t>
+          <t>6,0716</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>4.3726 %</t>
+          <t>4,3726</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>1.5282 %</t>
+          <t>1,5282</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>5.9199 %</t>
+          <t>5,9199</t>
         </is>
       </c>
     </row>
@@ -1001,192 +1001,192 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.5932 %</t>
+          <t>4,5932</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.726 %</t>
+          <t>0,726</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.6161 %</t>
+          <t>0,6161</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.3268 %</t>
+          <t>0,3268</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.568 %</t>
+          <t>0,568</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5208 %</t>
+          <t>0,5208</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.665 %</t>
+          <t>0,665</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.9014 %</t>
+          <t>0,9014</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.7621 %</t>
+          <t>0,7621</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.6187 %</t>
+          <t>0,6187</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.6408 %</t>
+          <t>0,6408</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.1163 %</t>
+          <t>1,1163</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2.2955 %</t>
+          <t>2,2955</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.937 %</t>
+          <t>0,937</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.7599 %</t>
+          <t>0,7599</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.8293 %</t>
+          <t>0,8293</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>3.0263 %</t>
+          <t>3,0263</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.9493 %</t>
+          <t>0,9493</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.1191 %</t>
+          <t>1,1191</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.4351 %</t>
+          <t>1,4351</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1.8825 %</t>
+          <t>1,8825</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1.2733 %</t>
+          <t>1,2733</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1.2011 %</t>
+          <t>1,2011</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.7789 %</t>
+          <t>0,7789</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.9652 %</t>
+          <t>0,9652</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.8799 %</t>
+          <t>0,8799</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.8304 %</t>
+          <t>0,8304</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.9434 %</t>
+          <t>0,9434</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.8985 %</t>
+          <t>0,8985</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.6153 %</t>
+          <t>0,6153</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.6867 %</t>
+          <t>0,6867</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.5827 %</t>
+          <t>0,5827</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.8544 %</t>
+          <t>0,8544</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.7989 %</t>
+          <t>0,7989</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.6139 %</t>
+          <t>0,6139</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.5882 %</t>
+          <t>0,5882</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.5206 %</t>
+          <t>0,5206</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.4559 %</t>
+          <t>0,4559</t>
         </is>
       </c>
     </row>
@@ -1198,222 +1198,222 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.0476 %</t>
+          <t>1,0476</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.7059 %</t>
+          <t>0,7059</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.5076 %</t>
+          <t>0,5076</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.6252 %</t>
+          <t>0,6252</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.8352 %</t>
+          <t>0,8352</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4076 %</t>
+          <t>0,4076</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.4409 %</t>
+          <t>0,4409</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.4815 %</t>
+          <t>0,4815</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.4572 %</t>
+          <t>0,4572</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.5069 %</t>
+          <t>0,5069</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.4759 %</t>
+          <t>0,4759</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.4457 %</t>
+          <t>0,4457</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.4504 %</t>
+          <t>0,4504</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.4587 %</t>
+          <t>0,4587</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.5238 %</t>
+          <t>0,5238</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.579 %</t>
+          <t>0,579</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1.0389 %</t>
+          <t>1,0389</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>1.7643 %</t>
+          <t>1,7643</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2.3724 %</t>
+          <t>2,3724</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2.9355 %</t>
+          <t>2,9355</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2.662 %</t>
+          <t>2,662</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1.2416 %</t>
+          <t>1,2416</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.666 %</t>
+          <t>0,666</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.5939 %</t>
+          <t>0,5939</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.5498 %</t>
+          <t>0,5498</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.4746 %</t>
+          <t>0,4746</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.476 %</t>
+          <t>0,476</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.5176 %</t>
+          <t>0,5176</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.5449 %</t>
+          <t>0,5449</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.6411 %</t>
+          <t>0,6411</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.68 %</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.7424 %</t>
+          <t>0,7424</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.7879 %</t>
+          <t>0,7879</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.0111 %</t>
+          <t>1,0111</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.9474 %</t>
+          <t>0,9474</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.9066 %</t>
+          <t>0,9066</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.8345 %</t>
+          <t>0,8345</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.9745 %</t>
+          <t>0,9745</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>1.3947 %</t>
+          <t>1,3947</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>4.8076 %</t>
+          <t>4,8076</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>12.3394 %</t>
+          <t>12,3394</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>5.397 %</t>
+          <t>5,397</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>3.7431 %</t>
+          <t>3,7431</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>3.9209 %</t>
+          <t>3,9209</t>
         </is>
       </c>
     </row>
